--- a/data/trans_dic/P25A$voluntad-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>43,19; 54,24</t>
+          <t>42,53; 53,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,73; 63,28</t>
+          <t>53,17; 63,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>44,6; 57,72</t>
+          <t>44,68; 58,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,13; 85,92</t>
+          <t>61,8; 86,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>60,32; 82,09</t>
+          <t>60,42; 81,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,72; 76,41</t>
+          <t>46,52; 77,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,87; 57,35</t>
+          <t>46,55; 57,23</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>56,05; 65,66</t>
+          <t>55,84; 65,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>46,83; 58,89</t>
+          <t>46,95; 59,32</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>58,73; 70,89</t>
+          <t>57,86; 70,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>69,04; 78,51</t>
+          <t>68,68; 78,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,64; 68,97</t>
+          <t>57,66; 69,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>54,7; 71,46</t>
+          <t>54,89; 71,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>72,44; 83,87</t>
+          <t>72,38; 83,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>60,36; 73,97</t>
+          <t>60,37; 73,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>59,55; 68,8</t>
+          <t>59,83; 69,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>71,67; 79,09</t>
+          <t>71,52; 79,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>60,3; 69,57</t>
+          <t>60,45; 69,3</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>57,7; 78,91</t>
+          <t>58,33; 78,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>66,49; 84,8</t>
+          <t>66,2; 85,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,44; 78,74</t>
+          <t>57,81; 79,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>51,1; 78,09</t>
+          <t>52,19; 76,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,95; 87,32</t>
+          <t>69,08; 87,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,82; 85,48</t>
+          <t>68,31; 84,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>58,93; 75,43</t>
+          <t>58,36; 75,22</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>70,54; 83,62</t>
+          <t>70,65; 83,76</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>65,88; 79,68</t>
+          <t>66,55; 80,62</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,85; 61,65</t>
+          <t>53,55; 61,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>63,91; 70,62</t>
+          <t>64,17; 70,85</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>56,31; 64,02</t>
+          <t>55,85; 63,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>60,06; 71,86</t>
+          <t>59,98; 72,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,32; 81,51</t>
+          <t>72,9; 81,84</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>64,23; 74,64</t>
+          <t>63,97; 74,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>56,47; 63,24</t>
+          <t>56,52; 63,28</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>67,98; 73,47</t>
+          <t>67,85; 73,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>60,23; 66,57</t>
+          <t>60,3; 66,49</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, por propia voluntad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>146570</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>219114</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>107572</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>36399</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>49426</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>23332</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>182970</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>268541</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>130904</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>128881; 163256</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>197834; 236991</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>93750; 122135</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>29763; 41659</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>41731; 56523</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17505; 29289</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>163495; 201020</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>246343; 290856</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>116171; 146789</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>154063</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>256366</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>191349</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>96106</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>188593</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>135473</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>250169</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>444958</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>326823</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>137176; 167935</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>238831; 272175</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>174170; 209360</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>82999; 107446</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>173781; 200222</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>121392; 147799</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>232295; 270328</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>420405; 465135</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>304150; 348676</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>58316</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>74092</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>62244</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>33339</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>61637</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>73437</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>91655</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>135730</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>135681</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>49248; 66513</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>63724; 82423</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51803; 70790</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>26808; 39464</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>53469; 67745</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>64946; 80735</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>79250; 102148</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>122697; 145471</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>122897; 148888</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>566</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>358950</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>549572</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>361165</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>165844</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>299655</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>232242</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>524794</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>849228</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>593407</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>334485; 382759</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>523706; 578177</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>335912; 384293</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>150391; 181985</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>281802; 316349</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>213512; 247041</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>494708; 553869</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>816026; 881413</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>563957; 621868</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>